--- a/doc/TopN time estimation.xlsx
+++ b/doc/TopN time estimation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\husen.wang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\husen.wang\Documents\GitHub\Application-based-on-SEAL\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>n</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Relax-1 no COM</t>
+  </si>
+  <si>
+    <t>Dec</t>
   </si>
 </sst>
 </file>
@@ -545,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,7 +616,7 @@
         <v>4.1782E-2</v>
       </c>
       <c r="F2">
-        <v>0.19212299999999999</v>
+        <v>0.30475000000000002</v>
       </c>
       <c r="G2">
         <v>3.9800000000000002E-4</v>
@@ -664,6 +667,12 @@
       <c r="B4">
         <v>6.3E-2</v>
       </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4">
+        <v>4.122E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
@@ -697,7 +706,7 @@
       </c>
       <c r="Q5">
         <f>K10+K12</f>
-        <v>1088605.8390995506</v>
+        <v>1726445.6524375509</v>
       </c>
       <c r="R5" t="s">
         <v>15</v>
@@ -813,11 +822,11 @@
       </c>
       <c r="K10">
         <f>E10*E2+F10*F2+G10*G2+H10*H2+I10*I2</f>
-        <v>1088555.0107199999</v>
+        <v>1726394.8240580002</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>18142.583511999997</v>
+        <v>28773.247067633336</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -957,7 +966,7 @@
       </c>
       <c r="Q21">
         <f>K26+K28</f>
-        <v>1041.6880901116674</v>
+        <v>1610.0039321116676</v>
       </c>
       <c r="R21" t="s">
         <v>32</v>
@@ -982,8 +991,8 @@
         <v>23.425774666666666</v>
       </c>
       <c r="N22">
-        <f>K23+K25+K21</f>
-        <v>2.9247399999999999</v>
+        <f>K23+K25+K21+2*B1*G4</f>
+        <v>141.58882</v>
       </c>
       <c r="O22">
         <f>K24/B3</f>
@@ -995,7 +1004,7 @@
       </c>
       <c r="Q22">
         <f>K26</f>
-        <v>994.47913600000004</v>
+        <v>1562.7949780000001</v>
       </c>
       <c r="R22" t="s">
         <v>33</v>
@@ -1082,11 +1091,11 @@
       </c>
       <c r="K26">
         <f>E26*E2+F26*F2+G26*G2+H26*H2+I26*I2</f>
-        <v>994.47913600000004</v>
+        <v>1562.7949780000001</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>16.574652266666668</v>
+        <v>26.046582966666669</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">

--- a/doc/TopN time estimation.xlsx
+++ b/doc/TopN time estimation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>n</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Dec</t>
+  </si>
+  <si>
+    <t>891 test, 51 nonzero</t>
   </si>
 </sst>
 </file>
@@ -548,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,6 +903,21 @@
       </c>
       <c r="K15">
         <v>2.9762499999999998</v>
+      </c>
+      <c r="N15">
+        <v>74.17</v>
+      </c>
+      <c r="O15">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0.72</v>
+      </c>
+      <c r="R15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
